--- a/temp/二维码项目管理日程表20180320.xlsx
+++ b/temp/二维码项目管理日程表20180320.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RandyGithub\learn-note-randy\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700055F4-F5F1-42DA-BFC6-0B88E5E5709E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC565ECA-7031-47DF-9165-A4D88F919D73}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="9930" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="9930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二维码扫码过闸计划节点" sheetId="15" r:id="rId1"/>
@@ -1492,8 +1492,30 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,11 +1529,13 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1522,14 +1546,6 @@
     </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1547,22 +1563,6 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3917,17 +3917,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="103"/>
       <c r="K1" s="103"/>
       <c r="L1" s="103"/>
@@ -4052,15 +4052,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -4122,35 +4122,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -4837,196 +4837,196 @@
         <f>MAX(F8:G17)-F8</f>
         <v>5</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54"/>
@@ -6595,33 +6595,49 @@
       <c r="EM12" s="77"/>
     </row>
     <row r="13" spans="1:143" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="119"/>
+      <c r="B13" s="121"/>
     </row>
     <row r="14" spans="1:143" ht="260.10000000000002" customHeight="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
     <mergeCell ref="EG5:EM5"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="R6:X6"/>
@@ -6638,28 +6654,12 @@
     <mergeCell ref="CQ6:CW6"/>
     <mergeCell ref="CX6:DD6"/>
     <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -6819,15 +6819,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6889,35 +6889,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -7604,196 +7604,196 @@
         <f>MAX(F8:G15)-F8</f>
         <v>10</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54"/>
@@ -9051,33 +9051,49 @@
       <c r="EM10" s="77"/>
     </row>
     <row r="11" spans="1:143" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="119"/>
+      <c r="B11" s="121"/>
     </row>
     <row r="12" spans="1:143" ht="260.10000000000002" customHeight="1">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
     <mergeCell ref="EG5:EM5"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="R6:X6"/>
@@ -9094,28 +9110,12 @@
     <mergeCell ref="CQ6:CW6"/>
     <mergeCell ref="CX6:DD6"/>
     <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -9275,15 +9275,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -9345,35 +9345,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -9504,10 +9504,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="118">
+      <c r="F4" s="125">
         <v>43191</v>
       </c>
-      <c r="G4" s="118"/>
+      <c r="G4" s="125"/>
       <c r="K4" s="71">
         <f>F4-WEEKDAY(F4,1)+2+7*(F5-1)</f>
         <v>43192</v>
@@ -10057,196 +10057,196 @@
         <f>MAX(F8:G16)-F8</f>
         <v>19</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54"/>
@@ -11651,34 +11651,45 @@
       <c r="EM11" s="77"/>
     </row>
     <row r="12" spans="1:143" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="121"/>
     </row>
     <row r="13" spans="1:143" ht="260.10000000000002" customHeight="1">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="CQ6:CW6"/>
-    <mergeCell ref="CX6:DD6"/>
-    <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
     <mergeCell ref="DL5:DR5"/>
     <mergeCell ref="DS5:DY5"/>
     <mergeCell ref="DZ5:EF5"/>
@@ -11695,26 +11706,15 @@
     <mergeCell ref="BV6:CB6"/>
     <mergeCell ref="CC6:CI6"/>
     <mergeCell ref="CJ6:CP6"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="CQ6:CW6"/>
+    <mergeCell ref="CX6:DD6"/>
+    <mergeCell ref="DE6:DK6"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -11874,15 +11874,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -11944,35 +11944,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -12103,10 +12103,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="118">
+      <c r="F4" s="125">
         <v>43210</v>
       </c>
-      <c r="G4" s="118"/>
+      <c r="G4" s="125"/>
       <c r="K4" s="71">
         <f>F4-WEEKDAY(F4,1)+2+7*(F5-1)</f>
         <v>43206</v>
@@ -12656,196 +12656,196 @@
         <f>MAX(F8:G16)-F8</f>
         <v>20</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54"/>
@@ -14247,34 +14247,45 @@
       <c r="EM11" s="77"/>
     </row>
     <row r="12" spans="1:143" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="121"/>
     </row>
     <row r="13" spans="1:143" ht="260.10000000000002" customHeight="1">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="CQ6:CW6"/>
-    <mergeCell ref="CX6:DD6"/>
-    <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
     <mergeCell ref="DL5:DR5"/>
     <mergeCell ref="DS5:DY5"/>
     <mergeCell ref="DZ5:EF5"/>
@@ -14291,26 +14302,15 @@
     <mergeCell ref="BV6:CB6"/>
     <mergeCell ref="CC6:CI6"/>
     <mergeCell ref="CJ6:CP6"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="CQ6:CW6"/>
+    <mergeCell ref="CX6:DD6"/>
+    <mergeCell ref="DE6:DK6"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -14448,7 +14448,7 @@
   </sheetPr>
   <dimension ref="A1:EM13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
@@ -14470,15 +14470,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -14540,35 +14540,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -15255,196 +15255,196 @@
         <f>MAX(F8:G16)-F8</f>
         <v>18</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54"/>
@@ -16848,24 +16848,41 @@
       <c r="EM11" s="77"/>
     </row>
     <row r="12" spans="1:143" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="121"/>
     </row>
     <row r="13" spans="1:143" ht="260.10000000000002" customHeight="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="119"/>
+      <c r="B13" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="EG5:EM5"/>
     <mergeCell ref="K6:Q6"/>
@@ -16882,29 +16899,12 @@
     <mergeCell ref="CJ6:CP6"/>
     <mergeCell ref="CQ6:CW6"/>
     <mergeCell ref="CX6:DD6"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -17019,22 +17019,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.5">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="111"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -17073,10 +17073,10 @@
       <c r="D4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E4" s="120">
         <v>43160</v>
       </c>
-      <c r="F4" s="113"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
@@ -19781,9 +19781,9 @@
   </sheetPr>
   <dimension ref="A1:EM64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G28" sqref="G28"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -19804,15 +19804,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -19874,10 +19874,10 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="111"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="92"/>
@@ -19886,23 +19886,23 @@
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -20032,10 +20032,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="113">
+      <c r="F4" s="120">
         <v>43160</v>
       </c>
-      <c r="G4" s="113"/>
+      <c r="G4" s="120"/>
       <c r="K4" s="71">
         <f>F4-WEEKDAY(F4,1)+2+7*(F5-1)</f>
         <v>43157</v>
@@ -20583,196 +20583,196 @@
         <f>MAX(F9:G64)-F8</f>
         <v>121</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143">
       <c r="B6" s="16"/>
@@ -31170,41 +31170,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RbwInP7Af3ZuN0o8y+wF7GFuIkq1r6uhXnhldcQYQIJKJAEnwcaPxQIwB0UWeIC2T2jqZZDPg5/qEIIGbeLQhw==" saltValue="8eSPAErhZpEt+EIHpjFa8Q==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="42">
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="R6:X6"/>
-    <mergeCell ref="Y6:AE6"/>
-    <mergeCell ref="AF6:AL6"/>
-    <mergeCell ref="AM6:AS6"/>
-    <mergeCell ref="AT6:AZ6"/>
-    <mergeCell ref="BA6:BG6"/>
-    <mergeCell ref="BH6:BN6"/>
-    <mergeCell ref="BO6:BU6"/>
-    <mergeCell ref="BV6:CB6"/>
-    <mergeCell ref="CC6:CI6"/>
-    <mergeCell ref="CJ6:CP6"/>
-    <mergeCell ref="CQ6:CW6"/>
-    <mergeCell ref="CX6:DD6"/>
-    <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="K2:AA2"/>
@@ -31212,6 +31177,41 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="R5:X5"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="CC6:CI6"/>
+    <mergeCell ref="CJ6:CP6"/>
+    <mergeCell ref="CQ6:CW6"/>
+    <mergeCell ref="CX6:DD6"/>
+    <mergeCell ref="DE6:DK6"/>
+    <mergeCell ref="AT6:AZ6"/>
+    <mergeCell ref="BA6:BG6"/>
+    <mergeCell ref="BH6:BN6"/>
+    <mergeCell ref="BO6:BU6"/>
+    <mergeCell ref="BV6:CB6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="R6:X6"/>
+    <mergeCell ref="Y6:AE6"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="AM6:AS6"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="EG5:EM5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -31465,15 +31465,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -31535,35 +31535,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="16.5">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -31694,10 +31694,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="118">
+      <c r="F4" s="125">
         <v>43160</v>
       </c>
-      <c r="G4" s="118"/>
+      <c r="G4" s="125"/>
       <c r="K4" s="71">
         <f>F4-WEEKDAY(F4,1)+2+7*(F5-1)</f>
         <v>43157</v>
@@ -32249,196 +32249,196 @@
         <f>MAX(F8:G13)-F8</f>
         <v>51</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54" t="s">
@@ -34361,39 +34361,50 @@
       <c r="EM14" s="77"/>
     </row>
     <row r="15" spans="1:143" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="119"/>
+      <c r="B15" s="121"/>
     </row>
     <row r="16" spans="1:143" ht="243.95" customHeight="1">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="CQ6:CW6"/>
-    <mergeCell ref="CX6:DD6"/>
-    <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
     <mergeCell ref="DL5:DR5"/>
     <mergeCell ref="DS5:DY5"/>
     <mergeCell ref="DZ5:EF5"/>
@@ -34410,26 +34421,15 @@
     <mergeCell ref="BV6:CB6"/>
     <mergeCell ref="CC6:CI6"/>
     <mergeCell ref="CJ6:CP6"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="CQ6:CW6"/>
+    <mergeCell ref="CX6:DD6"/>
+    <mergeCell ref="DE6:DK6"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -34602,15 +34602,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -34672,35 +34672,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -35386,196 +35386,196 @@
         <f>MAX(F8:G16)-F8</f>
         <v>39</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54" t="s">
@@ -37318,33 +37318,49 @@
       <c r="EM13" s="77"/>
     </row>
     <row r="14" spans="1:143" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="119"/>
+      <c r="B14" s="121"/>
     </row>
     <row r="15" spans="1:143" ht="273" customHeight="1">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
     <mergeCell ref="EG5:EM5"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="R6:X6"/>
@@ -37361,28 +37377,12 @@
     <mergeCell ref="CQ6:CW6"/>
     <mergeCell ref="CX6:DD6"/>
     <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -37547,15 +37547,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -37617,35 +37617,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="16.5">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -37776,10 +37776,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="118">
+      <c r="F4" s="125">
         <v>43184</v>
       </c>
-      <c r="G4" s="118"/>
+      <c r="G4" s="125"/>
       <c r="K4" s="71">
         <f>F4-WEEKDAY(F4,1)+2+7*(F5-1)</f>
         <v>43185</v>
@@ -38331,196 +38331,196 @@
         <f>MAX(F8:G18)-F8</f>
         <v>83</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54" t="s">
@@ -40932,36 +40932,47 @@
       <c r="EM17" s="77"/>
     </row>
     <row r="18" spans="1:143" ht="18">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="119"/>
+      <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:143" ht="260.10000000000002" customHeight="1">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="CQ6:CW6"/>
-    <mergeCell ref="CX6:DD6"/>
-    <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
     <mergeCell ref="DL5:DR5"/>
     <mergeCell ref="DS5:DY5"/>
     <mergeCell ref="DZ5:EF5"/>
@@ -40978,26 +40989,15 @@
     <mergeCell ref="BV6:CB6"/>
     <mergeCell ref="CC6:CI6"/>
     <mergeCell ref="CJ6:CP6"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="CQ6:CW6"/>
+    <mergeCell ref="CX6:DD6"/>
+    <mergeCell ref="DE6:DK6"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -41170,15 +41170,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -41240,35 +41240,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -41399,10 +41399,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="118">
+      <c r="F4" s="125">
         <v>43160</v>
       </c>
-      <c r="G4" s="118"/>
+      <c r="G4" s="125"/>
       <c r="K4" s="71">
         <f>F4-WEEKDAY(F4,1)+2+7*(F5-1)</f>
         <v>43157</v>
@@ -41954,196 +41954,196 @@
         <f>MAX(F8:G16)-F8</f>
         <v>121</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54"/>
@@ -44049,37 +44049,48 @@
       <c r="EM14" s="77"/>
     </row>
     <row r="15" spans="1:143" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="119"/>
+      <c r="B15" s="121"/>
     </row>
     <row r="16" spans="1:143" ht="260.10000000000002" customHeight="1">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
       <c r="X16" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="CQ6:CW6"/>
-    <mergeCell ref="CX6:DD6"/>
-    <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
     <mergeCell ref="DL5:DR5"/>
     <mergeCell ref="DS5:DY5"/>
     <mergeCell ref="DZ5:EF5"/>
@@ -44096,26 +44107,15 @@
     <mergeCell ref="BV6:CB6"/>
     <mergeCell ref="CC6:CI6"/>
     <mergeCell ref="CJ6:CP6"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="CQ6:CW6"/>
+    <mergeCell ref="CX6:DD6"/>
+    <mergeCell ref="DE6:DK6"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -44311,15 +44311,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -44381,35 +44381,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -45098,196 +45098,196 @@
         <f>MAX(F8:G16)-F8</f>
         <v>9</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54" t="s">
@@ -46225,28 +46225,28 @@
         <f t="shared" ref="A9:A15" ca="1" si="7">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A9,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))),OFFSET(A9,-1,0,1,1)&amp;".1",LEFT(OFFSET(A9,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A9,-1,0,1,1),LEN(OFFSET(A9,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A9,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127">
+      <c r="E9" s="110"/>
+      <c r="F9" s="111">
         <f>F8+1</f>
         <v>43251</v>
       </c>
-      <c r="G9" s="127">
+      <c r="G9" s="111">
         <f>IF(H9=0,F9,F9+H9-1)</f>
         <v>43255</v>
       </c>
-      <c r="H9" s="128">
+      <c r="H9" s="112">
         <v>5</v>
       </c>
-      <c r="I9" s="129">
+      <c r="I9" s="113">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -46390,28 +46390,28 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127">
+      <c r="E10" s="110"/>
+      <c r="F10" s="111">
         <f>F9+1</f>
         <v>43252</v>
       </c>
-      <c r="G10" s="127">
+      <c r="G10" s="111">
         <f>IF(H10=0,F10,F10+H10-1)</f>
         <v>43256</v>
       </c>
-      <c r="H10" s="128">
+      <c r="H10" s="112">
         <v>5</v>
       </c>
-      <c r="I10" s="129">
+      <c r="I10" s="113">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -46555,28 +46555,28 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.3</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="127">
+      <c r="E11" s="110"/>
+      <c r="F11" s="111">
         <f>F10+1</f>
         <v>43253</v>
       </c>
-      <c r="G11" s="127">
+      <c r="G11" s="111">
         <f t="shared" ref="G11:G14" si="8">IF(H11=0,F11,F11+H11-1)</f>
         <v>43253</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H11" s="112">
         <v>1</v>
       </c>
-      <c r="I11" s="129">
+      <c r="I11" s="113">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -46883,26 +46883,26 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127">
+      <c r="E13" s="110"/>
+      <c r="F13" s="111">
         <f t="shared" si="9"/>
         <v>43255</v>
       </c>
-      <c r="G13" s="127">
+      <c r="G13" s="111">
         <f t="shared" si="8"/>
         <v>43255</v>
       </c>
-      <c r="H13" s="128">
+      <c r="H13" s="112">
         <v>1</v>
       </c>
-      <c r="I13" s="129">
+      <c r="I13" s="113">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -47355,33 +47355,49 @@
       <c r="EM15" s="77"/>
     </row>
     <row r="16" spans="1:143" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="119"/>
+      <c r="B16" s="121"/>
     </row>
     <row r="17" spans="1:10" ht="260.10000000000002" customHeight="1">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
     <mergeCell ref="EG5:EM5"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="R6:X6"/>
@@ -47398,28 +47414,12 @@
     <mergeCell ref="CQ6:CW6"/>
     <mergeCell ref="CX6:DD6"/>
     <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
@@ -47608,15 +47608,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="42" customFormat="1" ht="21">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -47678,35 +47678,35 @@
       <c r="BN1" s="1"/>
     </row>
     <row r="2" spans="1:143" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -48393,196 +48393,196 @@
         <f>MAX(F8:G15)-F8</f>
         <v>13</v>
       </c>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="116" t="str">
         <f>"Week "&amp;(K4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114" t="str">
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116" t="str">
         <f>"Week "&amp;(R4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114" t="str">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116" t="str">
         <f>"Week "&amp;(Y4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114" t="str">
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116" t="str">
         <f>"Week "&amp;(AF4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114" t="str">
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116" t="str">
         <f>"Week "&amp;(AM4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114" t="str">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116" t="str">
         <f>"Week "&amp;(AT4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
-      <c r="BA5" s="114" t="str">
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116" t="str">
         <f>"Week "&amp;(BA4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="114"/>
-      <c r="BF5" s="114"/>
-      <c r="BG5" s="114"/>
-      <c r="BH5" s="114" t="str">
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116" t="str">
         <f>"Week "&amp;(BH4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI5" s="114"/>
-      <c r="BJ5" s="114"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114" t="str">
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116" t="str">
         <f>"Week "&amp;(BO4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114" t="str">
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116" t="str">
         <f>"Week "&amp;(BV4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="114"/>
-      <c r="CC5" s="114" t="str">
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116" t="str">
         <f>"Week "&amp;(CC4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD5" s="114"/>
-      <c r="CE5" s="114"/>
-      <c r="CF5" s="114"/>
-      <c r="CG5" s="114"/>
-      <c r="CH5" s="114"/>
-      <c r="CI5" s="114"/>
-      <c r="CJ5" s="114" t="str">
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116" t="str">
         <f>"Week "&amp;(CJ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK5" s="114"/>
-      <c r="CL5" s="114"/>
-      <c r="CM5" s="114"/>
-      <c r="CN5" s="114"/>
-      <c r="CO5" s="114"/>
-      <c r="CP5" s="114"/>
-      <c r="CQ5" s="114" t="str">
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116" t="str">
         <f>"Week "&amp;(CQ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR5" s="114"/>
-      <c r="CS5" s="114"/>
-      <c r="CT5" s="114"/>
-      <c r="CU5" s="114"/>
-      <c r="CV5" s="114"/>
-      <c r="CW5" s="114"/>
-      <c r="CX5" s="114" t="str">
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="116"/>
+      <c r="CX5" s="116" t="str">
         <f>"Week "&amp;(CX4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY5" s="114"/>
-      <c r="CZ5" s="114"/>
-      <c r="DA5" s="114"/>
-      <c r="DB5" s="114"/>
-      <c r="DC5" s="114"/>
-      <c r="DD5" s="114"/>
-      <c r="DE5" s="114" t="str">
+      <c r="CY5" s="116"/>
+      <c r="CZ5" s="116"/>
+      <c r="DA5" s="116"/>
+      <c r="DB5" s="116"/>
+      <c r="DC5" s="116"/>
+      <c r="DD5" s="116"/>
+      <c r="DE5" s="116" t="str">
         <f>"Week "&amp;(DE4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF5" s="114"/>
-      <c r="DG5" s="114"/>
-      <c r="DH5" s="114"/>
-      <c r="DI5" s="114"/>
-      <c r="DJ5" s="114"/>
-      <c r="DK5" s="114"/>
-      <c r="DL5" s="114" t="str">
+      <c r="DF5" s="116"/>
+      <c r="DG5" s="116"/>
+      <c r="DH5" s="116"/>
+      <c r="DI5" s="116"/>
+      <c r="DJ5" s="116"/>
+      <c r="DK5" s="116"/>
+      <c r="DL5" s="116" t="str">
         <f>"Week "&amp;(DL4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM5" s="114"/>
-      <c r="DN5" s="114"/>
-      <c r="DO5" s="114"/>
-      <c r="DP5" s="114"/>
-      <c r="DQ5" s="114"/>
-      <c r="DR5" s="114"/>
-      <c r="DS5" s="114" t="str">
+      <c r="DM5" s="116"/>
+      <c r="DN5" s="116"/>
+      <c r="DO5" s="116"/>
+      <c r="DP5" s="116"/>
+      <c r="DQ5" s="116"/>
+      <c r="DR5" s="116"/>
+      <c r="DS5" s="116" t="str">
         <f>"Week "&amp;(DS4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT5" s="114"/>
-      <c r="DU5" s="114"/>
-      <c r="DV5" s="114"/>
-      <c r="DW5" s="114"/>
-      <c r="DX5" s="114"/>
-      <c r="DY5" s="114"/>
-      <c r="DZ5" s="114" t="str">
+      <c r="DT5" s="116"/>
+      <c r="DU5" s="116"/>
+      <c r="DV5" s="116"/>
+      <c r="DW5" s="116"/>
+      <c r="DX5" s="116"/>
+      <c r="DY5" s="116"/>
+      <c r="DZ5" s="116" t="str">
         <f>"Week "&amp;(DZ4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA5" s="114"/>
-      <c r="EB5" s="114"/>
-      <c r="EC5" s="114"/>
-      <c r="ED5" s="114"/>
-      <c r="EE5" s="114"/>
-      <c r="EF5" s="114"/>
-      <c r="EG5" s="114" t="str">
+      <c r="EA5" s="116"/>
+      <c r="EB5" s="116"/>
+      <c r="EC5" s="116"/>
+      <c r="ED5" s="116"/>
+      <c r="EE5" s="116"/>
+      <c r="EF5" s="116"/>
+      <c r="EG5" s="116" t="str">
         <f>"Week "&amp;(EG4-($F$4-WEEKDAY($F$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH5" s="114"/>
-      <c r="EI5" s="114"/>
-      <c r="EJ5" s="114"/>
-      <c r="EK5" s="114"/>
-      <c r="EL5" s="114"/>
-      <c r="EM5" s="114"/>
+      <c r="EH5" s="116"/>
+      <c r="EI5" s="116"/>
+      <c r="EJ5" s="116"/>
+      <c r="EK5" s="116"/>
+      <c r="EL5" s="116"/>
+      <c r="EM5" s="116"/>
     </row>
     <row r="6" spans="1:143" ht="16.5">
       <c r="B6" s="54"/>
@@ -50320,33 +50320,49 @@
       <c r="EM13" s="77"/>
     </row>
     <row r="14" spans="1:143" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="119"/>
+      <c r="B14" s="121"/>
     </row>
     <row r="15" spans="1:143" ht="260.10000000000002" customHeight="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="DL6:DR6"/>
-    <mergeCell ref="DS6:DY6"/>
-    <mergeCell ref="DZ6:EF6"/>
-    <mergeCell ref="EG6:EM6"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:AA2"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
     <mergeCell ref="EG5:EM5"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="R6:X6"/>
@@ -50363,28 +50379,12 @@
     <mergeCell ref="CQ6:CW6"/>
     <mergeCell ref="CX6:DD6"/>
     <mergeCell ref="DE6:DK6"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K2:AA2"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="DL6:DR6"/>
+    <mergeCell ref="DS6:DY6"/>
+    <mergeCell ref="DZ6:EF6"/>
+    <mergeCell ref="EG6:EM6"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K7:BN7">
